--- a/Docs/487_120142_1_Bilgilendirme_Belgesi.xlsx
+++ b/Docs/487_120142_1_Bilgilendirme_Belgesi.xlsx
@@ -738,6 +738,30 @@
     <xf numFmtId="3" fontId="4" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="30"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="30"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="30"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="30"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="30"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -750,35 +774,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="30"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="30"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="30"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="30"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="30"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="30"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,8 +1086,8 @@
   </sheetPr>
   <dimension ref="A3:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:G39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,16 +1137,16 @@
         <v>31</v>
       </c>
       <c r="M9" s="31">
-        <f ca="1">TODAY()</f>
-        <v>42063</v>
+        <f>DATE(2015,3,6)</f>
+        <v>42069</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G17" s="63" t="s">
+      <c r="G17" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="64"/>
-      <c r="I17" s="65"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="G18" s="45" t="s">
@@ -1226,30 +1226,30 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="58" t="s">
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="54" t="s">
+      <c r="J30" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="58" t="s">
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="58" t="s">
+      <c r="N30" s="54" t="s">
         <v>9</v>
       </c>
       <c r="O30" s="9" t="s">
@@ -1257,7 +1257,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A31" s="67"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="8" t="s">
         <v>3</v>
       </c>
@@ -1279,7 +1279,7 @@
       <c r="H31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="60"/>
+      <c r="I31" s="55"/>
       <c r="J31" s="8" t="s">
         <v>7</v>
       </c>
@@ -1289,8 +1289,8 @@
       <c r="L31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="60"/>
-      <c r="N31" s="59"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="56"/>
       <c r="O31" s="5">
         <v>100000</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <f xml:space="preserve"> (L32 * K32) * J32 / 100</f>
+        <f>( (L32 * K32) * J32 / 100 ) + J32</f>
         <v>0</v>
       </c>
       <c r="N32" s="3">
@@ -1350,20 +1350,52 @@
       <c r="A33" s="1">
         <v>2</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="7"/>
+      <c r="B33" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C33" s="4">
+        <v>6000</v>
+      </c>
+      <c r="D33" s="4">
+        <v>6000</v>
+      </c>
+      <c r="E33" s="4">
+        <v>4000</v>
+      </c>
+      <c r="F33" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G33" s="4">
+        <v>4000</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <f>SUM(B33:H33)</f>
+        <v>34000</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <f xml:space="preserve"> ( (L33 * K33) * J33 / 100 ) + J33</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
+        <f xml:space="preserve"> M33 - I33</f>
+        <v>-34000</v>
+      </c>
+      <c r="O33" s="7">
+        <f xml:space="preserve"> (O32 + N33)</f>
+        <v>32000</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
@@ -1473,7 +1505,7 @@
       <c r="H39" s="52"/>
       <c r="I39" s="52">
         <f>SUM(I32:I38)</f>
-        <v>34000</v>
+        <v>68000</v>
       </c>
       <c r="J39" s="52"/>
       <c r="K39" s="52"/>
@@ -1484,8 +1516,8 @@
       </c>
       <c r="N39" s="52"/>
       <c r="O39" s="53">
-        <f xml:space="preserve"> O32</f>
-        <v>66000</v>
+        <f xml:space="preserve"> O33</f>
+        <v>32000</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
@@ -1573,34 +1605,34 @@
       </c>
       <c r="M9" s="31">
         <f ca="1">TODAY()</f>
-        <v>42063</v>
+        <v>42070</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="58" t="s">
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="54" t="s">
+      <c r="J14" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="58" t="s">
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="58" t="s">
+      <c r="N14" s="54" t="s">
         <v>9</v>
       </c>
       <c r="O14" s="9" t="s">
@@ -1608,7 +1640,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="57"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="8" t="s">
         <v>3</v>
       </c>
@@ -1630,7 +1662,7 @@
       <c r="H15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="60"/>
+      <c r="I15" s="55"/>
       <c r="J15" s="8" t="s">
         <v>7</v>
       </c>
@@ -1640,8 +1672,8 @@
       <c r="L15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="60"/>
-      <c r="N15" s="59"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="56"/>
       <c r="O15" s="5">
         <v>100000</v>
       </c>
@@ -1852,11 +1884,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="67"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">

--- a/Docs/487_120142_1_Bilgilendirme_Belgesi.xlsx
+++ b/Docs/487_120142_1_Bilgilendirme_Belgesi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t>Yazılım Test Uzmanı</t>
   </si>
@@ -121,13 +121,28 @@
   </si>
   <si>
     <t>Bütçedeki Gider ve Gelir Bölümleri her hafta için Cuma günleri güncellenmektedir.</t>
+  </si>
+  <si>
+    <t>FAİZ</t>
+  </si>
+  <si>
+    <t>SUBMIT BİLGİLENDİRME</t>
+  </si>
+  <si>
+    <t>Vizyon Belgesi</t>
+  </si>
+  <si>
+    <t>AÇIKLAMA</t>
+  </si>
+  <si>
+    <t>TARİH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +255,15 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -261,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -513,9 +537,9 @@
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="8"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color theme="8"/>
       </bottom>
       <diagonal/>
@@ -524,9 +548,9 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="8"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color theme="8"/>
       </bottom>
       <diagonal/>
@@ -537,9 +561,9 @@
         <color theme="4" tint="0.39997558519241921"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="8"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color theme="8"/>
       </bottom>
       <diagonal/>
@@ -549,23 +573,8 @@
         <color theme="4" tint="0.39997558519241921"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom style="medium">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom style="medium">
-        <color theme="8"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -573,19 +582,15 @@
       <right style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </right>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom style="medium">
-        <color theme="8"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -720,22 +725,13 @@
     <xf numFmtId="49" fontId="11" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -778,13 +774,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -792,6 +832,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>573740</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="157548" cy="248851"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Metin kutusu 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10488705" y="6293223"/>
+          <a:ext cx="157548" cy="248851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" i="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tablo8" displayName="Tablo8" ref="F52:I53" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="F52:I53"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="NO" dataDxfId="5"/>
+    <tableColumn id="4" name="TARİH" dataDxfId="0">
+      <calculatedColumnFormula>DATE(2015,3,3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="HAFTA" dataDxfId="4"/>
+    <tableColumn id="3" name="AÇIKLAMA" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1084,10 +1205,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:O41"/>
+  <dimension ref="A3:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,12 +1222,13 @@
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
     <col min="8" max="8" width="25.21875" customWidth="1"/>
     <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="7:13" ht="19.8" x14ac:dyDescent="0.4">
@@ -1137,18 +1259,18 @@
         <v>31</v>
       </c>
       <c r="M9" s="31">
-        <f>DATE(2015,3,6)</f>
-        <v>42069</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G17" s="57" t="s">
+        <f>DATE(2015,3,13)</f>
+        <v>42076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G17" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
-    </row>
-    <row r="18" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+    </row>
+    <row r="18" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="G18" s="45" t="s">
         <v>24</v>
       </c>
@@ -1159,7 +1281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G19" s="33" t="s">
         <v>3</v>
       </c>
@@ -1170,7 +1292,7 @@
         <v>21127179</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G20" s="34" t="s">
         <v>2</v>
       </c>
@@ -1181,7 +1303,7 @@
         <v>20826176</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G21" s="35" t="s">
         <v>1</v>
       </c>
@@ -1192,7 +1314,7 @@
         <v>21228194</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G22" s="34" t="s">
         <v>18</v>
       </c>
@@ -1203,7 +1325,7 @@
         <v>21383546</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G23" s="35" t="s">
         <v>18</v>
       </c>
@@ -1214,7 +1336,7 @@
         <v>21127501</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G24" s="36" t="s">
         <v>22</v>
       </c>
@@ -1225,39 +1347,42 @@
         <v>21383579</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="60" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="54" t="s">
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="62" t="s">
+      <c r="J30" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="54" t="s">
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="54" t="s">
+      <c r="N30" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="O30" s="9" t="s">
+      <c r="O30" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="P30" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A31" s="61"/>
+    <row r="31" spans="1:16" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A31" s="58"/>
       <c r="B31" s="8" t="s">
         <v>3</v>
       </c>
@@ -1279,7 +1404,7 @@
       <c r="H31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="55"/>
+      <c r="I31" s="52"/>
       <c r="J31" s="8" t="s">
         <v>7</v>
       </c>
@@ -1289,13 +1414,14 @@
       <c r="L31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="55"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="5">
+      <c r="M31" s="52"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="5">
         <v>100000</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -1337,16 +1463,19 @@
         <f>( (L32 * K32) * J32 / 100 ) + J32</f>
         <v>0</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="68">
         <f xml:space="preserve"> (M32-I32)</f>
         <v>-34000</v>
       </c>
-      <c r="O32" s="6">
-        <f xml:space="preserve"> (O31 + N32)</f>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6">
+        <f xml:space="preserve"> (P31 + N32)</f>
         <v>66000</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -1388,35 +1517,73 @@
         <f xml:space="preserve"> ( (L33 * K33) * J33 / 100 ) + J33</f>
         <v>0</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="69">
         <f xml:space="preserve"> M33 - I33</f>
         <v>-34000</v>
       </c>
-      <c r="O33" s="7">
-        <f xml:space="preserve"> (O32 + N33)</f>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
+        <f xml:space="preserve"> (P32 + N33)</f>
         <v>32000</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>3</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="6"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E34" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G34" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <f>SUM(B34:H34)</f>
+        <v>34000</v>
+      </c>
+      <c r="J34" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K34" s="3">
+        <v>10</v>
+      </c>
+      <c r="L34" s="3">
+        <v>3</v>
+      </c>
+      <c r="M34" s="3">
+        <f xml:space="preserve"> ( (L34 * K34) * J34 / 100 ) + J34</f>
+        <v>65000</v>
+      </c>
+      <c r="N34" s="68">
+        <f xml:space="preserve"> M34 - I34</f>
+        <v>31000</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6">
+        <f xml:space="preserve"> P33 + N34</f>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -1433,9 +1600,10 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="7"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O35" s="4"/>
+      <c r="P35" s="7"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>5</v>
       </c>
@@ -1452,9 +1620,10 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="6"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O36" s="3"/>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>6</v>
       </c>
@@ -1471,68 +1640,230 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
-      <c r="O37" s="7"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="48">
+      <c r="O37" s="4"/>
+      <c r="P37" s="7"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
         <v>7</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="50"/>
-    </row>
-    <row r="39" spans="1:15" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="51" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="12"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="65">
+        <v>8</v>
+      </c>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="67"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>9</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>10</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="7"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>11</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="12"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>12</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="7"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>13</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="12"/>
+    </row>
+    <row r="45" spans="1:16" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49">
         <f>SUM(I32:I38)</f>
-        <v>68000</v>
-      </c>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52">
+        <v>102000</v>
+      </c>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49">
         <f>SUM(M32:M38)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="52"/>
-      <c r="O39" s="53">
-        <f xml:space="preserve"> O33</f>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
+        <v>65000</v>
+      </c>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="50">
+        <f xml:space="preserve"> P34</f>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B47" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F51" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+    </row>
+    <row r="52" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F52" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F53" s="13">
+        <v>1</v>
+      </c>
+      <c r="G53" s="70">
+        <f>DATE(2015,3,3)</f>
+        <v>42066</v>
+      </c>
+      <c r="H53" s="13">
+        <v>2</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="F51:I51"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="N30:N31"/>
     <mergeCell ref="G17:I17"/>
@@ -1541,8 +1872,12 @@
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="J30:L30"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1605,34 +1940,34 @@
       </c>
       <c r="M9" s="31">
         <f ca="1">TODAY()</f>
-        <v>42070</v>
+        <v>42077</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="54" t="s">
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="54" t="s">
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="54" t="s">
+      <c r="N14" s="51" t="s">
         <v>9</v>
       </c>
       <c r="O14" s="9" t="s">
@@ -1640,7 +1975,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="65"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="8" t="s">
         <v>3</v>
       </c>
@@ -1662,7 +1997,7 @@
       <c r="H15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="55"/>
+      <c r="I15" s="52"/>
       <c r="J15" s="8" t="s">
         <v>7</v>
       </c>
@@ -1672,8 +2007,8 @@
       <c r="L15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="55"/>
-      <c r="N15" s="56"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="5">
         <v>100000</v>
       </c>
@@ -1884,11 +2219,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">

--- a/Docs/487_120142_1_Bilgilendirme_Belgesi.xlsx
+++ b/Docs/487_120142_1_Bilgilendirme_Belgesi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>Yazılım Test Uzmanı</t>
   </si>
@@ -136,6 +136,45 @@
   </si>
   <si>
     <t>TARİH</t>
+  </si>
+  <si>
+    <t>13.03.15 - 20.03.15</t>
+  </si>
+  <si>
+    <t>20.03.15 - 27.03.15</t>
+  </si>
+  <si>
+    <t>27.03.15 - 03.04.15</t>
+  </si>
+  <si>
+    <t>03.04.15 - 10.04.15</t>
+  </si>
+  <si>
+    <t>10.04.15 - 17.04.15</t>
+  </si>
+  <si>
+    <t>17.04.15 - 24.04.15</t>
+  </si>
+  <si>
+    <t>24.04.15 - 01.05.15</t>
+  </si>
+  <si>
+    <t>01.05.15 - 08.05.15</t>
+  </si>
+  <si>
+    <t>08.05.15 - 15.05.15</t>
+  </si>
+  <si>
+    <t>15.05.15 - 22.05.15</t>
+  </si>
+  <si>
+    <t>06.03.15 - 13.03.15</t>
+  </si>
+  <si>
+    <t>27.02.15 - 06.03.15</t>
+  </si>
+  <si>
+    <t>20.02.15 - 27.02.15</t>
   </si>
 </sst>
 </file>
@@ -590,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -734,12 +773,48 @@
     <xf numFmtId="3" fontId="4" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="30"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="30"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="30"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="30"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="30"/>
     </xf>
@@ -753,18 +828,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="30"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="30"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="30"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -776,29 +839,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="30"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,13 +860,13 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -838,10 +892,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>573740</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>125505</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="157548" cy="248851"/>
     <xdr:sp macro="" textlink="">
@@ -851,7 +905,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10488705" y="6293223"/>
+          <a:off x="10497670" y="6122893"/>
           <a:ext cx="157548" cy="248851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -901,15 +955,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tablo8" displayName="Tablo8" ref="F52:I53" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="F52:I53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tablo8" displayName="Tablo8" ref="G52:J53" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="G52:J53"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="NO" dataDxfId="5"/>
-    <tableColumn id="4" name="TARİH" dataDxfId="0">
+    <tableColumn id="1" name="NO" dataDxfId="3"/>
+    <tableColumn id="4" name="TARİH" dataDxfId="2">
       <calculatedColumnFormula>DATE(2015,3,3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="HAFTA" dataDxfId="4"/>
-    <tableColumn id="3" name="AÇIKLAMA" dataDxfId="3"/>
+    <tableColumn id="2" name="HAFTA" dataDxfId="1"/>
+    <tableColumn id="3" name="AÇIKLAMA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1205,237 +1259,242 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:P53"/>
+  <dimension ref="A3:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.21875" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.21875" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:13" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="G3" s="27"/>
-      <c r="H3" s="28" t="s">
+    <row r="3" spans="8:14" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="H3" s="27"/>
+      <c r="I3" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="7:13" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="G4" s="28"/>
-      <c r="H4" s="28" t="s">
+      <c r="J3" s="28"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="8:14" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="6" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="L6" s="14"/>
-      <c r="M6" s="25"/>
-    </row>
-    <row r="7" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-    </row>
-    <row r="9" spans="7:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="L9" s="32" t="s">
+      <c r="J4" s="28"/>
+    </row>
+    <row r="6" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="M6" s="14"/>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
+    </row>
+    <row r="9" spans="8:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M9" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="31">
+      <c r="N9" s="31">
         <f>DATE(2015,3,13)</f>
         <v>42076</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G17" s="54" t="s">
+    <row r="17" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="H17" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-    </row>
-    <row r="18" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G18" s="45" t="s">
+      <c r="I17" s="67"/>
+      <c r="J17" s="68"/>
+    </row>
+    <row r="18" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="H18" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="46" t="s">
+      <c r="I18" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="47" t="s">
+      <c r="J18" s="47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G19" s="33" t="s">
+    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H19" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="I19" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="37">
+      <c r="J19" s="37">
         <v>21127179</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G20" s="34" t="s">
+    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H20" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="I20" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="38">
+      <c r="J20" s="38">
         <v>20826176</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G21" s="35" t="s">
+    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H21" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="I21" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="39">
+      <c r="J21" s="39">
         <v>21228194</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G22" s="34" t="s">
+    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H22" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="42" t="s">
+      <c r="I22" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="38">
+      <c r="J22" s="38">
         <v>21383546</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G23" s="35" t="s">
+    <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H23" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="I23" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="39">
+      <c r="J23" s="39">
         <v>21127501</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G24" s="36" t="s">
+    <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H24" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="44" t="s">
+      <c r="I24" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="40">
+      <c r="J24" s="40">
         <v>21383579</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="60"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
       <c r="H30" s="60"/>
-      <c r="I30" s="51" t="s">
+      <c r="I30" s="60"/>
+      <c r="J30" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="59" t="s">
+      <c r="K30" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="60"/>
       <c r="L30" s="60"/>
-      <c r="M30" s="51" t="s">
+      <c r="M30" s="60"/>
+      <c r="N30" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="51" t="s">
+      <c r="O30" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="O30" s="51" t="s">
+      <c r="P30" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="P30" s="9" t="s">
+      <c r="Q30" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A31" s="58"/>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="62"/>
+      <c r="C31" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="F31" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="G31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="I31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="52"/>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="77"/>
+      <c r="K31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="L31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="M31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="52"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="5">
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="5">
         <v>100000</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>1</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="3">
         <v>10000</v>
-      </c>
-      <c r="C32" s="3">
-        <v>6000</v>
       </c>
       <c r="D32" s="3">
         <v>6000</v>
       </c>
       <c r="E32" s="3">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F32" s="3">
         <v>4000</v>
@@ -1444,14 +1503,14 @@
         <v>4000</v>
       </c>
       <c r="H32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3">
-        <f>SUM(B32:H32)</f>
+      <c r="J32" s="3">
+        <f>SUM(C32:I32)</f>
         <v>34000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1460,36 +1519,39 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <f>( (L32 * K32) * J32 / 100 ) + J32</f>
         <v>0</v>
       </c>
-      <c r="N32" s="68">
-        <f xml:space="preserve"> (M32-I32)</f>
+      <c r="N32" s="3">
+        <f>( (M32 * L32) * K32 / 100 ) + K32</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="54">
+        <f xml:space="preserve"> (N32-J32)</f>
         <v>-34000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="6">
-        <f xml:space="preserve"> (P31 + N32)</f>
+      <c r="Q32" s="6">
+        <f xml:space="preserve"> (Q31 + O32)</f>
         <v>66000</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="4">
         <v>10000</v>
-      </c>
-      <c r="C33" s="4">
-        <v>6000</v>
       </c>
       <c r="D33" s="4">
         <v>6000</v>
       </c>
       <c r="E33" s="4">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F33" s="4">
         <v>4000</v>
@@ -1498,52 +1560,55 @@
         <v>4000</v>
       </c>
       <c r="H33" s="4">
+        <v>4000</v>
+      </c>
+      <c r="I33" s="4">
         <v>0</v>
       </c>
-      <c r="I33" s="4">
-        <f>SUM(B33:H33)</f>
+      <c r="J33" s="4">
+        <f>SUM(C33:I33)</f>
         <v>34000</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
+        <v>50000</v>
+      </c>
+      <c r="L33" s="4">
+        <v>10</v>
+      </c>
+      <c r="M33" s="4">
+        <v>3</v>
+      </c>
+      <c r="N33" s="4">
+        <f xml:space="preserve"> ( (M33 * L33) * K33 / 100 ) + K33</f>
+        <v>65000</v>
+      </c>
+      <c r="O33" s="55">
+        <f xml:space="preserve"> N33 - J33</f>
+        <v>31000</v>
+      </c>
+      <c r="P33" s="4">
         <v>0</v>
       </c>
-      <c r="K33" s="4">
-        <v>0</v>
-      </c>
-      <c r="L33" s="4">
-        <v>0</v>
-      </c>
-      <c r="M33" s="4">
-        <f xml:space="preserve"> ( (L33 * K33) * J33 / 100 ) + J33</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="69">
-        <f xml:space="preserve"> M33 - I33</f>
-        <v>-34000</v>
-      </c>
-      <c r="O33" s="4">
-        <v>0</v>
-      </c>
-      <c r="P33" s="7">
-        <f xml:space="preserve"> (P32 + N33)</f>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q33" s="7">
+        <f xml:space="preserve"> (Q32 + O33)</f>
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>3</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="3">
         <v>10000</v>
-      </c>
-      <c r="C34" s="3">
-        <v>6000</v>
       </c>
       <c r="D34" s="3">
         <v>6000</v>
       </c>
       <c r="E34" s="3">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F34" s="3">
         <v>4000</v>
@@ -1552,42 +1617,47 @@
         <v>4000</v>
       </c>
       <c r="H34" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I34" s="3">
         <v>0</v>
       </c>
-      <c r="I34" s="3">
-        <f>SUM(B34:H34)</f>
+      <c r="J34" s="3">
+        <f>SUM(C34:I34)</f>
         <v>34000</v>
       </c>
-      <c r="J34" s="3">
-        <v>50000</v>
-      </c>
       <c r="K34" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L34" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M34" s="3">
-        <f xml:space="preserve"> ( (L34 * K34) * J34 / 100 ) + J34</f>
-        <v>65000</v>
-      </c>
-      <c r="N34" s="68">
-        <f xml:space="preserve"> M34 - I34</f>
-        <v>31000</v>
-      </c>
-      <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="6">
-        <f xml:space="preserve"> P33 + N34</f>
+      <c r="N34" s="3">
+        <f xml:space="preserve"> ( (M34 * L34) * K34 / 100 ) + K34</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="54">
+        <f xml:space="preserve"> N34 - J34</f>
+        <v>-34000</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="6">
+        <f xml:space="preserve"> Q33 + O34</f>
         <v>63000</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="74" t="s">
+        <v>40</v>
+      </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1601,13 +1671,16 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="7"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P35" s="4"/>
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>5</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="73" t="s">
+        <v>41</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1621,13 +1694,16 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="6"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P36" s="3"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>6</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="74" t="s">
+        <v>42</v>
+      </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1641,13 +1717,16 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="P37" s="7"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P37" s="4"/>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>7</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="73" t="s">
+        <v>43</v>
+      </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -1661,33 +1740,39 @@
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
-      <c r="P38" s="12"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="65">
+      <c r="P38" s="11"/>
+      <c r="Q38" s="12"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="51">
         <v>8</v>
       </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="67"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B39" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="53"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>9</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="73" t="s">
+        <v>45</v>
+      </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1701,13 +1786,16 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="6"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>10</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="75" t="s">
+        <v>46</v>
+      </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1721,13 +1809,16 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="7"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P41" s="4"/>
+      <c r="Q41" s="7"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>11</v>
       </c>
-      <c r="B42" s="11"/>
+      <c r="B42" s="73" t="s">
+        <v>47</v>
+      </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
@@ -1741,13 +1832,16 @@
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
-      <c r="P42" s="12"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P42" s="11"/>
+      <c r="Q42" s="12"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>12</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="74" t="s">
+        <v>48</v>
+      </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -1761,13 +1855,16 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
-      <c r="P43" s="7"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P43" s="4"/>
+      <c r="Q43" s="7"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>13</v>
       </c>
-      <c r="B44" s="11"/>
+      <c r="B44" s="73" t="s">
+        <v>49</v>
+      </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
@@ -1781,99 +1878,103 @@
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
-      <c r="P44" s="12"/>
-    </row>
-    <row r="45" spans="1:16" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P44" s="11"/>
+      <c r="Q44" s="12"/>
+    </row>
+    <row r="45" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="49"/>
+      <c r="B45" s="76"/>
       <c r="C45" s="49"/>
       <c r="D45" s="49"/>
       <c r="E45" s="49"/>
       <c r="F45" s="49"/>
       <c r="G45" s="49"/>
       <c r="H45" s="49"/>
-      <c r="I45" s="49">
-        <f>SUM(I32:I38)</f>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49">
+        <f>SUM(J32:J38)</f>
         <v>102000</v>
       </c>
-      <c r="J45" s="49"/>
       <c r="K45" s="49"/>
       <c r="L45" s="49"/>
-      <c r="M45" s="49">
-        <f>SUM(M32:M38)</f>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49">
+        <f>SUM(N32:N38)</f>
         <v>65000</v>
       </c>
-      <c r="N45" s="49"/>
       <c r="O45" s="49"/>
-      <c r="P45" s="50">
-        <f xml:space="preserve"> P34</f>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="50">
+        <f xml:space="preserve"> Q34</f>
         <v>63000</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="29"/>
+      <c r="C47" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="30"/>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
-    </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F51" s="71" t="s">
+      <c r="F47" s="30"/>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G51" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-    </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F52" s="13" t="s">
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G52" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="H52" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="I52" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="J52" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F53" s="13">
+    <row r="53" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G53" s="13">
         <v>1</v>
       </c>
-      <c r="G53" s="70">
+      <c r="H53" s="56">
         <f>DATE(2015,3,3)</f>
         <v>42066</v>
       </c>
-      <c r="H53" s="13">
+      <c r="I53" s="13">
         <v>2</v>
       </c>
-      <c r="I53" s="13" t="s">
+      <c r="J53" s="13" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="N30:N31"/>
     <mergeCell ref="O30:O31"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="P30:P31"/>
     <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -1940,11 +2041,11 @@
       </c>
       <c r="M9" s="31">
         <f ca="1">TODAY()</f>
-        <v>42077</v>
+        <v>42081</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="59" t="s">
@@ -1956,7 +2057,7 @@
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
       <c r="H14" s="60"/>
-      <c r="I14" s="51" t="s">
+      <c r="I14" s="61" t="s">
         <v>12</v>
       </c>
       <c r="J14" s="59" t="s">
@@ -1964,10 +2065,10 @@
       </c>
       <c r="K14" s="60"/>
       <c r="L14" s="60"/>
-      <c r="M14" s="51" t="s">
+      <c r="M14" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="51" t="s">
+      <c r="N14" s="61" t="s">
         <v>9</v>
       </c>
       <c r="O14" s="9" t="s">
@@ -1975,7 +2076,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="62"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="8" t="s">
         <v>3</v>
       </c>
@@ -1997,7 +2098,7 @@
       <c r="H15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="52"/>
+      <c r="I15" s="62"/>
       <c r="J15" s="8" t="s">
         <v>7</v>
       </c>
@@ -2007,8 +2108,8 @@
       <c r="L15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="52"/>
-      <c r="N15" s="53"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="65"/>
       <c r="O15" s="5">
         <v>100000</v>
       </c>
@@ -2219,11 +2320,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="60"/>
-      <c r="C1" s="64"/>
+      <c r="C1" s="72"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">

--- a/Docs/487_120142_1_Bilgilendirme_Belgesi.xlsx
+++ b/Docs/487_120142_1_Bilgilendirme_Belgesi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
   <si>
     <t>Yazılım Test Uzmanı</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>20.02.15 - 27.02.15</t>
+  </si>
+  <si>
+    <t>Proje Planı</t>
   </si>
 </sst>
 </file>
@@ -791,6 +794,39 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="30"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="30"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="30"/>
     </xf>
@@ -803,56 +839,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="30"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="30"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="30"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="30"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="30"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="30"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="30"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="30"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,13 +863,13 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -951,19 +954,80 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>591669</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="157548" cy="248851"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Metin kutusu 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11761693" y="6454588"/>
+          <a:ext cx="157548" cy="248851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" i="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tablo8" displayName="Tablo8" ref="G52:J53" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="G52:J53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tablo8" displayName="Tablo8" ref="G52:J54" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="G52:J54"/>
   <tableColumns count="4">
     <tableColumn id="1" name="NO" dataDxfId="3"/>
-    <tableColumn id="4" name="TARİH" dataDxfId="2">
-      <calculatedColumnFormula>DATE(2015,3,3)</calculatedColumnFormula>
+    <tableColumn id="4" name="TARİH" dataDxfId="0">
+      <calculatedColumnFormula>DATE(2015,3,18)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="HAFTA" dataDxfId="1"/>
-    <tableColumn id="3" name="AÇIKLAMA" dataDxfId="0"/>
+    <tableColumn id="2" name="HAFTA" dataDxfId="2"/>
+    <tableColumn id="3" name="AÇIKLAMA" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1259,10 +1323,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:Q53"/>
+  <dimension ref="A3:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1314,16 +1378,16 @@
         <v>31</v>
       </c>
       <c r="N9" s="31">
-        <f>DATE(2015,3,13)</f>
-        <v>42076</v>
+        <f>DATE(2015,3,20)</f>
+        <v>42083</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="H17" s="66" t="s">
+      <c r="H17" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="H18" s="45" t="s">
@@ -1403,36 +1467,36 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="61" t="s">
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="59" t="s">
+      <c r="K30" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="61" t="s">
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="O30" s="61" t="s">
+      <c r="O30" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="P30" s="61" t="s">
+      <c r="P30" s="63" t="s">
         <v>35</v>
       </c>
       <c r="Q30" s="9" t="s">
@@ -1440,8 +1504,8 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A31" s="58"/>
-      <c r="B31" s="62"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="8" t="s">
         <v>3</v>
       </c>
@@ -1463,7 +1527,7 @@
       <c r="I31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="77"/>
+      <c r="J31" s="64"/>
       <c r="K31" s="8" t="s">
         <v>7</v>
       </c>
@@ -1473,9 +1537,9 @@
       <c r="M31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
       <c r="Q31" s="5">
         <v>100000</v>
       </c>
@@ -1484,7 +1548,7 @@
       <c r="A32" s="2">
         <v>1</v>
       </c>
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="57" t="s">
         <v>52</v>
       </c>
       <c r="C32" s="3">
@@ -1541,7 +1605,7 @@
       <c r="A33" s="1">
         <v>2</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="58" t="s">
         <v>51</v>
       </c>
       <c r="C33" s="4">
@@ -1598,7 +1662,7 @@
       <c r="A34" s="2">
         <v>3</v>
       </c>
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="3">
@@ -1655,30 +1719,64 @@
       <c r="A35" s="1">
         <v>4</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="7"/>
+      <c r="C35" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D35" s="4">
+        <v>6000</v>
+      </c>
+      <c r="E35" s="4">
+        <v>6000</v>
+      </c>
+      <c r="F35" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G35" s="4">
+        <v>4000</v>
+      </c>
+      <c r="H35" s="4">
+        <v>4000</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <f>SUM(C35:I35)</f>
+        <v>34000</v>
+      </c>
+      <c r="K35" s="4">
+        <v>50000</v>
+      </c>
+      <c r="L35" s="4">
+        <v>10</v>
+      </c>
+      <c r="M35" s="4">
+        <v>2</v>
+      </c>
+      <c r="N35" s="4">
+        <f xml:space="preserve"> ( (M35 * L35) * K35 / 100 ) + K35</f>
+        <v>60000</v>
+      </c>
+      <c r="O35" s="4">
+        <f xml:space="preserve"> N35 - J35</f>
+        <v>26000</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="7">
+        <f xml:space="preserve"> Q34 + O35</f>
+        <v>89000</v>
+      </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>5</v>
       </c>
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="3"/>
@@ -1701,7 +1799,7 @@
       <c r="A37" s="1">
         <v>6</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="4"/>
@@ -1724,7 +1822,7 @@
       <c r="A38" s="10">
         <v>7</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C38" s="11"/>
@@ -1747,7 +1845,7 @@
       <c r="A39" s="51">
         <v>8</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="58" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="52"/>
@@ -1770,7 +1868,7 @@
       <c r="A40" s="2">
         <v>9</v>
       </c>
-      <c r="B40" s="73" t="s">
+      <c r="B40" s="57" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="3"/>
@@ -1793,7 +1891,7 @@
       <c r="A41" s="1">
         <v>10</v>
       </c>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="59" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="4"/>
@@ -1816,7 +1914,7 @@
       <c r="A42" s="10">
         <v>11</v>
       </c>
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="57" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="11"/>
@@ -1839,7 +1937,7 @@
       <c r="A43" s="1">
         <v>12</v>
       </c>
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="58" t="s">
         <v>48</v>
       </c>
       <c r="C43" s="4"/>
@@ -1862,7 +1960,7 @@
       <c r="A44" s="10">
         <v>13</v>
       </c>
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="57" t="s">
         <v>49</v>
       </c>
       <c r="C44" s="11"/>
@@ -1885,7 +1983,7 @@
       <c r="A45" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="76"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="49"/>
       <c r="D45" s="49"/>
       <c r="E45" s="49"/>
@@ -1895,20 +1993,20 @@
       <c r="I45" s="49"/>
       <c r="J45" s="49">
         <f>SUM(J32:J38)</f>
-        <v>102000</v>
+        <v>136000</v>
       </c>
       <c r="K45" s="49"/>
       <c r="L45" s="49"/>
       <c r="M45" s="49"/>
       <c r="N45" s="49">
         <f>SUM(N32:N38)</f>
-        <v>65000</v>
+        <v>125000</v>
       </c>
       <c r="O45" s="49"/>
       <c r="P45" s="49"/>
       <c r="Q45" s="50">
-        <f xml:space="preserve"> Q34</f>
-        <v>63000</v>
+        <f xml:space="preserve"> Q35</f>
+        <v>89000</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
@@ -1924,12 +2022,12 @@
       <c r="F47" s="30"/>
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G51" s="63" t="s">
+      <c r="G51" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G52" s="13" t="s">
@@ -1960,21 +2058,39 @@
         <v>37</v>
       </c>
     </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G54" s="13">
+        <v>2</v>
+      </c>
+      <c r="H54" s="56">
+        <f t="shared" ref="H53:H54" si="0">DATE(2015,3,18)</f>
+        <v>42081</v>
+      </c>
+      <c r="I54" s="13">
+        <v>4</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="G51:J51"/>
     <mergeCell ref="N30:N31"/>
     <mergeCell ref="O30:O31"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="P30:P31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H53" calculatedColumn="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -2041,34 +2157,34 @@
       </c>
       <c r="M9" s="31">
         <f ca="1">TODAY()</f>
-        <v>42081</v>
+        <v>42085</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61" t="s">
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="59" t="s">
+      <c r="J14" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61" t="s">
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="61" t="s">
+      <c r="N14" s="63" t="s">
         <v>9</v>
       </c>
       <c r="O14" s="9" t="s">
@@ -2076,7 +2192,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="70"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="8" t="s">
         <v>3</v>
       </c>
@@ -2098,7 +2214,7 @@
       <c r="H15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="62"/>
+      <c r="I15" s="72"/>
       <c r="J15" s="8" t="s">
         <v>7</v>
       </c>
@@ -2108,8 +2224,8 @@
       <c r="L15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="62"/>
-      <c r="N15" s="65"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="75"/>
       <c r="O15" s="5">
         <v>100000</v>
       </c>
@@ -2320,11 +2436,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="77"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">

--- a/Docs/487_120142_1_Bilgilendirme_Belgesi.xlsx
+++ b/Docs/487_120142_1_Bilgilendirme_Belgesi.xlsx
@@ -806,10 +806,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="30"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="30"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -818,29 +824,23 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="30"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="30"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="30"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="30"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="30"/>
@@ -863,13 +863,13 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1023,11 +1023,11 @@
   <autoFilter ref="G52:J54"/>
   <tableColumns count="4">
     <tableColumn id="1" name="NO" dataDxfId="3"/>
-    <tableColumn id="4" name="TARİH" dataDxfId="0">
+    <tableColumn id="4" name="TARİH" dataDxfId="2">
       <calculatedColumnFormula>DATE(2015,3,18)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="HAFTA" dataDxfId="2"/>
-    <tableColumn id="3" name="AÇIKLAMA" dataDxfId="1"/>
+    <tableColumn id="2" name="HAFTA" dataDxfId="1"/>
+    <tableColumn id="3" name="AÇIKLAMA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1325,8 +1325,8 @@
   </sheetPr>
   <dimension ref="A3:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1378,16 +1378,16 @@
         <v>31</v>
       </c>
       <c r="N9" s="31">
-        <f>DATE(2015,3,20)</f>
-        <v>42083</v>
+        <f>DATE(2015,3,27)</f>
+        <v>42090</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="H17" s="65" t="s">
+      <c r="H17" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="66"/>
-      <c r="J17" s="67"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
     </row>
     <row r="18" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="H18" s="45" t="s">
@@ -1467,36 +1467,36 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="63" t="s">
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="70" t="s">
+      <c r="K30" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="63" t="s">
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="O30" s="63" t="s">
+      <c r="O30" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="P30" s="63" t="s">
+      <c r="P30" s="65" t="s">
         <v>35</v>
       </c>
       <c r="Q30" s="9" t="s">
@@ -1504,8 +1504,8 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A31" s="69"/>
-      <c r="B31" s="72"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="8" t="s">
         <v>3</v>
       </c>
@@ -1527,7 +1527,7 @@
       <c r="I31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="64"/>
+      <c r="J31" s="66"/>
       <c r="K31" s="8" t="s">
         <v>7</v>
       </c>
@@ -1537,9 +1537,9 @@
       <c r="M31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
       <c r="Q31" s="5">
         <v>100000</v>
       </c>
@@ -1760,12 +1760,13 @@
         <f xml:space="preserve"> ( (M35 * L35) * K35 / 100 ) + K35</f>
         <v>60000</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="55">
         <f xml:space="preserve"> N35 - J35</f>
         <v>26000</v>
       </c>
       <c r="P35" s="4">
-        <v>0</v>
+        <f>Q35 * 0.1</f>
+        <v>8900</v>
       </c>
       <c r="Q35" s="7">
         <f xml:space="preserve"> Q34 + O35</f>
@@ -1779,21 +1780,56 @@
       <c r="B36" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="6"/>
+      <c r="C36" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D36" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E36" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G36" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H36" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <f>SUM(C36:I36)</f>
+        <v>34000</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
+        <f>SUM(K36:M36)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="54">
+        <f>N36 - J36</f>
+        <v>-34000</v>
+      </c>
+      <c r="P36" s="3">
+        <f>Q36 * 0.1</f>
+        <v>6390</v>
+      </c>
+      <c r="Q36" s="6">
+        <f xml:space="preserve"> (Q35 + O36) + P35</f>
+        <v>63900</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
@@ -1993,7 +2029,7 @@
       <c r="I45" s="49"/>
       <c r="J45" s="49">
         <f>SUM(J32:J38)</f>
-        <v>136000</v>
+        <v>170000</v>
       </c>
       <c r="K45" s="49"/>
       <c r="L45" s="49"/>
@@ -2003,10 +2039,13 @@
         <v>125000</v>
       </c>
       <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
+      <c r="P45" s="49">
+        <f>SUM(P32:P44) - P36</f>
+        <v>8900</v>
+      </c>
       <c r="Q45" s="50">
-        <f xml:space="preserve"> Q35</f>
-        <v>89000</v>
+        <f xml:space="preserve"> Q36</f>
+        <v>63900</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
@@ -2022,12 +2061,12 @@
       <c r="F47" s="30"/>
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G51" s="61" t="s">
+      <c r="G51" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G52" s="13" t="s">
@@ -2063,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="H54" s="56">
-        <f t="shared" ref="H53:H54" si="0">DATE(2015,3,18)</f>
+        <f t="shared" ref="H54" si="0">DATE(2015,3,18)</f>
         <v>42081</v>
       </c>
       <c r="I54" s="13">
@@ -2075,16 +2114,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="P30:P31"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="C30:I30"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="K30:M30"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="P30:P31"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
@@ -2157,34 +2196,34 @@
       </c>
       <c r="M9" s="31">
         <f ca="1">TODAY()</f>
-        <v>42085</v>
+        <v>42090</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="63" t="s">
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="70" t="s">
+      <c r="J14" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="63" t="s">
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="63" t="s">
+      <c r="N14" s="65" t="s">
         <v>9</v>
       </c>
       <c r="O14" s="9" t="s">
@@ -2214,7 +2253,7 @@
       <c r="H15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="72"/>
+      <c r="I15" s="67"/>
       <c r="J15" s="8" t="s">
         <v>7</v>
       </c>
@@ -2224,7 +2263,7 @@
       <c r="L15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="72"/>
+      <c r="M15" s="67"/>
       <c r="N15" s="75"/>
       <c r="O15" s="5">
         <v>100000</v>
@@ -2439,7 +2478,7 @@
       <c r="A1" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="77"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
